--- a/UnionInsurunce.xlsx
+++ b/UnionInsurunce.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AlgoSpring\python\Union_Insurance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4743BCA-E76F-4211-9545-7CC86E9DEC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C575AB1-AC2B-4529-BBDB-1013352B786C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="181">
   <si>
     <t>KEY</t>
   </si>
@@ -573,6 +573,15 @@
   </si>
   <si>
     <t>12/30/2024</t>
+  </si>
+  <si>
+    <t>Alternative treatment Sublimit</t>
+  </si>
+  <si>
+    <t>Pre-existing &amp; Chronic Conditions</t>
+  </si>
+  <si>
+    <t>Tick the IP &amp; OP</t>
   </si>
 </sst>
 </file>
@@ -582,7 +591,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -628,6 +637,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -697,7 +712,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -751,6 +766,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1057,10 +1075,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:BT11"/>
+  <dimension ref="A1:BU11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
-      <selection activeCell="BH2" sqref="BH2"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,7 +1114,7 @@
     <col min="60" max="60" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1154,7 +1172,7 @@
       <c r="S1" t="s">
         <v>58</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="24" t="s">
         <v>59</v>
       </c>
       <c r="U1" t="s">
@@ -1170,7 +1188,7 @@
         <v>63</v>
       </c>
       <c r="Y1" t="s">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="Z1" t="s">
         <v>65</v>
@@ -1269,7 +1287,7 @@
         <v>94</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="BG1" s="8" t="s">
         <v>96</v>
@@ -1313,8 +1331,11 @@
       <c r="BT1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="2" spans="1:72" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BU1" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -1358,13 +1379,13 @@
         <v>0.1</v>
       </c>
       <c r="O2">
+        <v>1000</v>
+      </c>
+      <c r="P2">
         <v>0.1</v>
       </c>
-      <c r="P2" s="8">
-        <v>0.2</v>
-      </c>
       <c r="Q2">
-        <v>0.2</v>
+        <v>1000</v>
       </c>
       <c r="R2" s="8">
         <v>0.2</v>
@@ -1384,8 +1405,8 @@
       <c r="W2" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="9" t="s">
-        <v>103</v>
+      <c r="X2" s="23">
+        <v>1500</v>
       </c>
       <c r="Y2">
         <v>1500</v>
@@ -1525,8 +1546,11 @@
       <c r="BT2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:72" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BU2" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:73" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>107</v>
       </c>
@@ -1570,13 +1594,13 @@
         <v>0.1</v>
       </c>
       <c r="O3">
+        <v>1000</v>
+      </c>
+      <c r="P3">
         <v>0.2</v>
       </c>
-      <c r="P3" s="8">
-        <v>0.2</v>
-      </c>
       <c r="Q3">
-        <v>0.2</v>
+        <v>1000</v>
       </c>
       <c r="R3" s="8">
         <v>0.2</v>
@@ -1596,11 +1620,11 @@
       <c r="W3" t="s">
         <v>28</v>
       </c>
-      <c r="X3" s="9" t="s">
-        <v>103</v>
+      <c r="X3" s="23">
+        <v>1500</v>
       </c>
       <c r="Y3">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="Z3" t="s">
         <v>27</v>
@@ -1743,8 +1767,11 @@
       <c r="BT3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:72" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BU3" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:73" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1788,13 +1815,13 @@
         <v>0.1</v>
       </c>
       <c r="O4">
+        <v>1000</v>
+      </c>
+      <c r="P4">
         <v>0.2</v>
       </c>
-      <c r="P4" s="8">
-        <v>0.2</v>
-      </c>
       <c r="Q4">
-        <v>0.2</v>
+        <v>1000</v>
       </c>
       <c r="R4" s="8">
         <v>0.2</v>
@@ -1814,11 +1841,11 @@
       <c r="W4" t="s">
         <v>28</v>
       </c>
-      <c r="X4" s="9" t="s">
-        <v>103</v>
+      <c r="X4" s="23">
+        <v>1500</v>
       </c>
       <c r="Y4">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="Z4" t="s">
         <v>27</v>
@@ -1961,8 +1988,11 @@
       <c r="BT4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="BU4" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:73" x14ac:dyDescent="0.25">
       <c r="M11" s="17" t="s">
         <v>151</v>
       </c>
@@ -1976,7 +2006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35475F2C-BE4C-497E-8D3A-E1C4C00A11A1}">
   <dimension ref="A1:BN4"/>
   <sheetViews>
-    <sheetView topLeftCell="AU1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="BH2" sqref="BH2"/>
     </sheetView>
   </sheetViews>
